--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.0319</v>
+        <v>16.2088</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.516699999999998</v>
+        <v>-7.496599999999994</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.20260000000003</v>
+        <v>17.98050000000003</v>
       </c>
     </row>
     <row r="13">
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.481399999999994</v>
+        <v>-8.939899999999993</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.427099999999995</v>
+        <v>-7.529999999999996</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.9811</v>
+        <v>16.1611</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.3179</v>
+        <v>-8.143499999999998</v>
       </c>
       <c r="E27" t="n">
-        <v>16.76009999999999</v>
+        <v>16.75289999999999</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.03180000000001</v>
+        <v>16.86540000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.74300000000001</v>
+        <v>16.72990000000002</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.4322</v>
+        <v>16.4146</v>
       </c>
     </row>
     <row r="39">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.22080000000001</v>
+        <v>17.36820000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.26760000000001</v>
+        <v>16.4335</v>
       </c>
     </row>
     <row r="56">
@@ -1610,10 +1610,10 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.6773</v>
+        <v>-7.843599999999997</v>
       </c>
       <c r="E69" t="n">
-        <v>16.37399999999999</v>
+        <v>16.5697</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.20630000000002</v>
+        <v>18.00660000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.7136</v>
+        <v>-7.681599999999996</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.509199999999995</v>
+        <v>-8.237299999999991</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.3902</v>
+        <v>16.5824</v>
       </c>
     </row>
     <row r="84">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8146</v>
+        <v>16.7898</v>
       </c>
     </row>
   </sheetData>
